--- a/Risk Chart.xlsx
+++ b/Risk Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D531397-6362-4D71-A2E2-1D2605B8956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A97384-AF55-4ED8-8D7A-CAB93485A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="200" windowWidth="24970" windowHeight="20480" xr2:uid="{B2691337-1CEB-4F8A-9E13-8DFA80370A18}"/>
+    <workbookView xWindow="110" yWindow="220" windowWidth="19710" windowHeight="20480" xr2:uid="{B2691337-1CEB-4F8A-9E13-8DFA80370A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>Objective</t>
   </si>
@@ -62,9 +62,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>WRITE UP OBJECTIVES   fdsagfsrdafgdsaf</t>
-  </si>
-  <si>
     <t>Design and implement a weapon wheel for the player</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>I could always have a simple weapon swap system without the need for a complex weapon wheel</t>
   </si>
   <si>
-    <t>1aviii</t>
-  </si>
-  <si>
-    <t>1bi</t>
-  </si>
-  <si>
     <t>Make the player slow down after taking damage</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>I could simply omit this feature without much harm to the end product</t>
   </si>
   <si>
-    <t>2ai</t>
-  </si>
-  <si>
     <t>Design and implement 3 traversable buildings</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>I could change the second building to have something different to change the pace, maybe I could use the second building to tell more of the background story of the game</t>
   </si>
   <si>
-    <t>3a</t>
-  </si>
-  <si>
     <t>Implementing 4 different enemies</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>I could easily remove 1 enemy type that I didn’t have time to properly implement</t>
   </si>
   <si>
-    <t>3ciii, 3div</t>
-  </si>
-  <si>
     <t>Semi-Intelligent AI for 2 enemy types</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>Design the AI very simply first and then once that works, slowly start to add behaviours to the AI. I could also watch tutorials about AI in Unity</t>
   </si>
   <si>
-    <t>3ei</t>
-  </si>
-  <si>
     <t>Design and Implement 4 different attack for the boss</t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>I could make the boss have more health and only have 2 attacks. To try to balance it out a bit more, that attack could get faster as the boss` health drops</t>
   </si>
   <si>
-    <t>8bvi</t>
-  </si>
-  <si>
     <t>Spontaneous noise from the enemies as if they are talking</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>Instead of trying to make it sound like they are talking, I could just have enemy voice clips play randomly to create an ambience</t>
   </si>
   <si>
-    <t>8viii</t>
-  </si>
-  <si>
     <t>Silence footsteps if player is crouching</t>
   </si>
   <si>
@@ -191,9 +164,6 @@
     <t>I could just have the footstep audio muted entirely when the player is crouched or just leave the footstep audio the same regardless if the player is crouched or standing.</t>
   </si>
   <si>
-    <t>9ai/9aii</t>
-  </si>
-  <si>
     <t>Checkpoints in game</t>
   </si>
   <si>
@@ -206,9 +176,6 @@
     <t>If I figure out how to make a simple checkpoint but I can't implement it properly to activate it on every floor of a building, ill just activate the checkpoint after the player leaves every building. If I can't get checkpoints working at all, I can get rid of them entirely and just rely on save games to save the player`s progress.</t>
   </si>
   <si>
-    <t>9avii</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
@@ -252,6 +219,51 @@
   </si>
   <si>
     <t>I can always remove the feature in the worst-case scenario and find a way to implement a replacement feature from a model/animation I have found</t>
+  </si>
+  <si>
+    <t>Time Constraints</t>
+  </si>
+  <si>
+    <t>There is a risk that I have underestimated how long each task will take me while designing my Gantt chart</t>
+  </si>
+  <si>
+    <t>I have tried to leave a lot of time at the end of the project completion and before submission to allow me to catch up on anything that I may not have been able to do within the original allotted time-frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I find that a certain feature will take too long, then I can either remove it or remove a feature from build 3 as this won't cause significant damage to my overall grade. </t>
+  </si>
+  <si>
+    <t>3axi</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4aii</t>
+  </si>
+  <si>
+    <t>Puzzle element to one of the buildings</t>
+  </si>
+  <si>
+    <t>5bv, 5cvi, 5cvii</t>
+  </si>
+  <si>
+    <t>5di,5dii,5diii,5div</t>
+  </si>
+  <si>
+    <t>11aix</t>
+  </si>
+  <si>
+    <t>11aviii</t>
+  </si>
+  <si>
+    <t>13ai,13aii</t>
+  </si>
+  <si>
+    <t>13aviii</t>
   </si>
 </sst>
 </file>
@@ -319,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,13 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -666,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBAB71B-D07F-4FFF-9C3F-1E62822B7573}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,236 +718,274 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7">
         <v>4</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>40</v>
@@ -950,44 +994,44 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>49</v>
@@ -996,253 +1040,225 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
@@ -1344,22 +1360,22 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
@@ -1370,24 +1386,6 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
